--- a/video-streaming.xlsx
+++ b/video-streaming.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27203"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/83b762e7543208b1/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\muath\Documents\webDev\video-streaming-platform\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{35BD097E-89F1-4F19-8D67-A3DB6E162EF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CD6533B-4D1E-459B-A5F4-69EF384C525F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" xr2:uid="{D6F4BC0A-9AEB-4F25-B0EC-11787D3112BA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{D6F4BC0A-9AEB-4F25-B0EC-11787D3112BA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Section</t>
   </si>
@@ -114,7 +114,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -202,7 +202,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -210,6 +210,7 @@
     <xf numFmtId="9" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -527,16 +528,16 @@
   <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="18.7109375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="18.7109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="33.7109375" customWidth="1"/>
     <col min="2" max="5" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -550,23 +551,22 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3">
-        <v>0</v>
-      </c>
-      <c r="C2" s="3">
-        <f>MROUND(B2, 0.5)</f>
-        <v>0</v>
+      <c r="B2" s="4">
+        <v>0.35</v>
+      </c>
+      <c r="C2" s="4">
+        <v>0.5</v>
       </c>
       <c r="D2" s="3">
         <v>0</v>
       </c>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -574,322 +574,307 @@
         <v>0</v>
       </c>
       <c r="C3" s="3">
-        <f t="shared" ref="C3:C21" si="0">MROUND(B3, 0.5)</f>
+        <f t="shared" ref="C3" si="0">MROUND(B3, 0.5)</f>
         <v>0</v>
       </c>
       <c r="D3" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" s="3">
         <v>0</v>
       </c>
       <c r="C4" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="C4:C19" si="1">MROUND(B4, 0.5)</f>
         <v>0</v>
       </c>
       <c r="D4" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" s="3">
         <v>0</v>
       </c>
       <c r="C5" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D5" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B6" s="3">
         <v>0</v>
       </c>
       <c r="C6" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D6" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B7" s="3">
         <v>0</v>
       </c>
       <c r="C7" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D7" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B8" s="3">
         <v>0</v>
       </c>
       <c r="C8" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D8" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B9" s="3">
         <v>0</v>
       </c>
       <c r="C9" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D9" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B10" s="3">
         <v>0</v>
       </c>
       <c r="C10" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D10" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B11" s="3">
         <v>0</v>
       </c>
       <c r="C11" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D11" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B12" s="3">
         <v>0</v>
       </c>
       <c r="C12" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D12" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B13" s="3">
         <v>0</v>
       </c>
       <c r="C13" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D13" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B14" s="3">
         <v>0</v>
       </c>
       <c r="C14" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D14" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B15" s="3">
         <v>0</v>
       </c>
       <c r="C15" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D15" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B16" s="3">
         <v>0</v>
       </c>
       <c r="C16" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D16" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B17" s="3">
         <v>0</v>
       </c>
       <c r="C17" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D17" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B18" s="3">
         <v>0</v>
       </c>
       <c r="C18" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D18" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B19" s="3">
         <v>0</v>
       </c>
       <c r="C19" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D19" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" s="3">
-        <v>0</v>
-      </c>
-      <c r="C20" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="5">
-        <v>0</v>
-      </c>
-      <c r="C21" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D21" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" t="s">
+      <c r="B20" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="C20" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="D20" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="4">
+      <c r="B21" s="4">
         <v>0.6</v>
       </c>
-      <c r="C22" s="6">
-        <f t="shared" ref="C2:C22" si="1">MROUND(B22, 0.5)</f>
+      <c r="C21" s="6">
+        <f t="shared" ref="C21" si="2">MROUND(B21, 0.5)</f>
         <v>0.5</v>
       </c>
-      <c r="D22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4"/>
-    <row r="24" spans="1:4"/>
-    <row r="25" spans="1:4"/>
-    <row r="26" spans="1:4"/>
-    <row r="27" spans="1:4"/>
-    <row r="28" spans="1:4"/>
-    <row r="29" spans="1:4"/>
-    <row r="30" spans="1:4"/>
-    <row r="31" spans="1:4"/>
-    <row r="32" spans="1:4"/>
-    <row r="33"/>
-    <row r="34"/>
-    <row r="35"/>
-    <row r="36"/>
-    <row r="37"/>
-    <row r="38"/>
-    <row r="39"/>
-    <row r="40"/>
-    <row r="41"/>
-    <row r="42"/>
-    <row r="43"/>
-    <row r="44"/>
-    <row r="45"/>
-    <row r="46"/>
+      <c r="D21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25"/>
+    <row r="33" x14ac:dyDescent="0.25"/>
+    <row r="34" x14ac:dyDescent="0.25"/>
+    <row r="35" x14ac:dyDescent="0.25"/>
+    <row r="36" x14ac:dyDescent="0.25"/>
+    <row r="37" x14ac:dyDescent="0.25"/>
+    <row r="38" x14ac:dyDescent="0.25"/>
+    <row r="39" x14ac:dyDescent="0.25"/>
+    <row r="40" x14ac:dyDescent="0.25"/>
+    <row r="41" x14ac:dyDescent="0.25"/>
+    <row r="42" x14ac:dyDescent="0.25"/>
+    <row r="43" x14ac:dyDescent="0.25"/>
+    <row r="44" x14ac:dyDescent="0.25"/>
+    <row r="45" x14ac:dyDescent="0.25"/>
+    <row r="46" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/video-streaming.xlsx
+++ b/video-streaming.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\muath\Documents\webDev\video-streaming-platform\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CD6533B-4D1E-459B-A5F4-69EF384C525F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B68825E5-5F4E-429A-9116-C41BA5FC9C03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{D6F4BC0A-9AEB-4F25-B0EC-11787D3112BA}"/>
   </bookViews>
@@ -50,9 +50,6 @@
     <t>Testing</t>
   </si>
   <si>
-    <t>User Authentication</t>
-  </si>
-  <si>
     <t>Celeb Profile Management</t>
   </si>
   <si>
@@ -108,6 +105,9 @@
   </si>
   <si>
     <t xml:space="preserve">Front preview </t>
+  </si>
+  <si>
+    <t>User Authentication(firebase)</t>
   </si>
 </sst>
 </file>
@@ -129,7 +129,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -148,6 +148,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="4">
     <border>
@@ -202,7 +208,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -211,6 +217,7 @@
     <xf numFmtId="9" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -528,7 +535,7 @@
   <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.7109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -553,13 +560,13 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="4">
-        <v>0.35</v>
-      </c>
-      <c r="C2" s="4">
-        <v>0.5</v>
+        <v>23</v>
+      </c>
+      <c r="B2" s="8">
+        <v>0.7</v>
+      </c>
+      <c r="C2" s="8">
+        <v>0.8</v>
       </c>
       <c r="D2" s="3">
         <v>0</v>
@@ -568,7 +575,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" s="3">
         <v>0</v>
@@ -583,7 +590,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="3">
         <v>0</v>
@@ -598,7 +605,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" s="3">
         <v>0</v>
@@ -613,7 +620,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" s="3">
         <v>0</v>
@@ -628,7 +635,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" s="3">
         <v>0</v>
@@ -643,7 +650,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8" s="3">
         <v>0</v>
@@ -658,7 +665,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9" s="3">
         <v>0</v>
@@ -673,7 +680,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10" s="3">
         <v>0</v>
@@ -688,7 +695,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11" s="3">
         <v>0</v>
@@ -703,7 +710,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12" s="3">
         <v>0</v>
@@ -718,7 +725,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B13" s="3">
         <v>0</v>
@@ -733,7 +740,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B14" s="3">
         <v>0</v>
@@ -748,7 +755,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B15" s="3">
         <v>0</v>
@@ -763,7 +770,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B16" s="3">
         <v>0</v>
@@ -778,7 +785,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B17" s="3">
         <v>0</v>
@@ -793,7 +800,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B18" s="3">
         <v>0</v>
@@ -808,7 +815,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B19" s="3">
         <v>0</v>
@@ -823,7 +830,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B20" s="5">
         <v>0.5</v>
@@ -837,7 +844,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B21" s="4">
         <v>0.6</v>

--- a/video-streaming.xlsx
+++ b/video-streaming.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\muath\Documents\webDev\video-streaming-platform\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B68825E5-5F4E-429A-9116-C41BA5FC9C03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6930F0DB-9CF0-44EA-B106-A03E1649052F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{D6F4BC0A-9AEB-4F25-B0EC-11787D3112BA}"/>
   </bookViews>
@@ -535,7 +535,7 @@
   <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.7109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -578,11 +578,10 @@
         <v>4</v>
       </c>
       <c r="B3" s="3">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="C3" s="3">
-        <f t="shared" ref="C3" si="0">MROUND(B3, 0.5)</f>
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="D3" s="3">
         <v>0</v>
@@ -596,7 +595,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="3">
-        <f t="shared" ref="C4:C19" si="1">MROUND(B4, 0.5)</f>
+        <f t="shared" ref="C4:C19" si="0">MROUND(B4, 0.5)</f>
         <v>0</v>
       </c>
       <c r="D4" s="3">
@@ -611,7 +610,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D5" s="3">
@@ -626,7 +625,7 @@
         <v>0</v>
       </c>
       <c r="C6" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D6" s="3">
@@ -641,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="C7" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D7" s="3">
@@ -653,11 +652,11 @@
         <v>9</v>
       </c>
       <c r="B8" s="3">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="C8" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.5</v>
       </c>
       <c r="D8" s="3">
         <v>0</v>
@@ -671,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="C9" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D9" s="3">
@@ -686,7 +685,7 @@
         <v>0</v>
       </c>
       <c r="C10" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D10" s="3">
@@ -698,10 +697,9 @@
         <v>12</v>
       </c>
       <c r="B11" s="3">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="C11" s="3">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D11" s="3">
@@ -713,10 +711,9 @@
         <v>13</v>
       </c>
       <c r="B12" s="3">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="C12" s="3">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D12" s="3">
@@ -731,7 +728,7 @@
         <v>0</v>
       </c>
       <c r="C13" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D13" s="3">
@@ -746,7 +743,7 @@
         <v>0</v>
       </c>
       <c r="C14" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D14" s="3">
@@ -761,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="C15" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D15" s="3">
@@ -772,12 +769,11 @@
       <c r="A16" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="3">
-        <v>0</v>
-      </c>
-      <c r="C16" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="B16" s="8">
+        <v>1</v>
+      </c>
+      <c r="C16" s="8">
+        <v>0.8</v>
       </c>
       <c r="D16" s="3">
         <v>0</v>
@@ -791,7 +787,7 @@
         <v>0</v>
       </c>
       <c r="C17" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D17" s="3">
@@ -806,7 +802,7 @@
         <v>0</v>
       </c>
       <c r="C18" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D18" s="3">
@@ -821,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="C19" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D19" s="3">
@@ -850,7 +846,7 @@
         <v>0.6</v>
       </c>
       <c r="C21" s="6">
-        <f t="shared" ref="C21" si="2">MROUND(B21, 0.5)</f>
+        <f t="shared" ref="C21" si="1">MROUND(B21, 0.5)</f>
         <v>0.5</v>
       </c>
       <c r="D21" s="3">
